--- a/src/main/webapp/template/批量导入其他扣款.xlsx
+++ b/src/main/webapp/template/批量导入其他扣款.xlsx
@@ -387,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="A2" sqref="A2:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -418,18 +418,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
